--- a/branches/master/ValueSet-transformation.xlsx
+++ b/branches/master/ValueSet-transformation.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>learning-ig.censacrof.github.com/ValueSet/transformation</t>
+    <t>http://learning-ig.censacrof.github.com/ValueSet/transformation</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-15T15:54:12+00:00</t>
+    <t>2022-12-20T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
